--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N2">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O2">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P2">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q2">
-        <v>11.88725846473019</v>
+        <v>21.613471318934</v>
       </c>
       <c r="R2">
-        <v>11.88725846473019</v>
+        <v>194.521241870406</v>
       </c>
       <c r="S2">
-        <v>0.0001130813021025316</v>
+        <v>0.0001398280834689713</v>
       </c>
       <c r="T2">
-        <v>0.0001130813021025316</v>
+        <v>0.0001454824263446114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N3">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O3">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P3">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q3">
-        <v>47.59236581368786</v>
+        <v>74.85233716703468</v>
       </c>
       <c r="R3">
-        <v>47.59236581368786</v>
+        <v>673.6710345033121</v>
       </c>
       <c r="S3">
-        <v>0.0004527374173212266</v>
+        <v>0.0004842562629016837</v>
       </c>
       <c r="T3">
-        <v>0.0004527374173212266</v>
+        <v>0.0005038385305133963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N4">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O4">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P4">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q4">
-        <v>572.2623564345096</v>
+        <v>994.1784561942246</v>
       </c>
       <c r="R4">
-        <v>572.2623564345096</v>
+        <v>8947.606105748022</v>
       </c>
       <c r="S4">
-        <v>0.005443826480418519</v>
+        <v>0.006431825138333926</v>
       </c>
       <c r="T4">
-        <v>0.005443826480418519</v>
+        <v>0.006691914125796677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N5">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O5">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P5">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q5">
-        <v>750.7795551859997</v>
+        <v>1127.874510152193</v>
       </c>
       <c r="R5">
-        <v>750.7795551859997</v>
+        <v>10150.87059136974</v>
       </c>
       <c r="S5">
-        <v>0.007142027738716232</v>
+        <v>0.007296770094025984</v>
       </c>
       <c r="T5">
-        <v>0.007142027738716232</v>
+        <v>0.007591835569950179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.24442930255297</v>
+        <v>8.290399499999999</v>
       </c>
       <c r="N6">
-        <v>8.24442930255297</v>
+        <v>16.580799</v>
       </c>
       <c r="O6">
-        <v>0.05921376811911847</v>
+        <v>0.05584863441910305</v>
       </c>
       <c r="P6">
-        <v>0.05921376811911847</v>
+        <v>0.03793869776670523</v>
       </c>
       <c r="Q6">
-        <v>87.01690870064935</v>
+        <v>131.230275699807</v>
       </c>
       <c r="R6">
-        <v>87.01690870064935</v>
+        <v>787.3816541988419</v>
       </c>
       <c r="S6">
-        <v>0.0008277758383063714</v>
+        <v>0.0008489926339659236</v>
       </c>
       <c r="T6">
-        <v>0.0008277758383063714</v>
+        <v>0.0005888826968748071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N7">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O7">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P7">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q7">
-        <v>157.7684932602895</v>
+        <v>212.323185647991</v>
       </c>
       <c r="R7">
-        <v>157.7684932602895</v>
+        <v>1910.908670831919</v>
       </c>
       <c r="S7">
-        <v>0.001500822641449393</v>
+        <v>0.001373622204739366</v>
       </c>
       <c r="T7">
-        <v>0.001500822641449393</v>
+        <v>0.00142916849225544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N8">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O8">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P8">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q8">
-        <v>631.6490776570716</v>
+        <v>735.3231901522321</v>
       </c>
       <c r="R8">
-        <v>631.6490776570716</v>
+        <v>6617.908711370089</v>
       </c>
       <c r="S8">
-        <v>0.006008761430169341</v>
+        <v>0.004757164219113863</v>
       </c>
       <c r="T8">
-        <v>0.006008761430169341</v>
+        <v>0.004949533569699761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N9">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O9">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P9">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q9">
-        <v>7595.104455088041</v>
+        <v>9766.461564961168</v>
       </c>
       <c r="R9">
-        <v>7595.104455088041</v>
+        <v>87898.15408465051</v>
       </c>
       <c r="S9">
-        <v>0.07225083091567054</v>
+        <v>0.06318400143828649</v>
       </c>
       <c r="T9">
-        <v>0.07225083091567054</v>
+        <v>0.06573902471775733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N10">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O10">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P10">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q10">
-        <v>9964.396714664519</v>
+        <v>11079.84485568939</v>
       </c>
       <c r="R10">
-        <v>9964.396714664519</v>
+        <v>99718.60370120451</v>
       </c>
       <c r="S10">
-        <v>0.09478947214815416</v>
+        <v>0.07168091827745325</v>
       </c>
       <c r="T10">
-        <v>0.09478947214815416</v>
+        <v>0.07457953835094802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.24442930255297</v>
+        <v>8.290399499999999</v>
       </c>
       <c r="N11">
-        <v>8.24442930255297</v>
+        <v>16.580799</v>
       </c>
       <c r="O11">
-        <v>0.05921376811911847</v>
+        <v>0.05584863441910305</v>
       </c>
       <c r="P11">
-        <v>0.05921376811911847</v>
+        <v>0.03793869776670523</v>
       </c>
       <c r="Q11">
-        <v>1154.89426048929</v>
+        <v>1289.160347215406</v>
       </c>
       <c r="R11">
-        <v>1154.89426048929</v>
+        <v>7734.962083292433</v>
       </c>
       <c r="S11">
-        <v>0.01098629655898825</v>
+        <v>0.008340206807844431</v>
       </c>
       <c r="T11">
-        <v>0.01098629655898825</v>
+        <v>0.005784977726549021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N12">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O12">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P12">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q12">
-        <v>174.0045875684848</v>
+        <v>244.5729942520076</v>
       </c>
       <c r="R12">
-        <v>174.0045875684848</v>
+        <v>2201.156948268069</v>
       </c>
       <c r="S12">
-        <v>0.001655273618592498</v>
+        <v>0.001582261939782316</v>
       </c>
       <c r="T12">
-        <v>0.001655273618592498</v>
+        <v>0.001646245163356928</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N13">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O13">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P13">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q13">
-        <v>696.6526394113508</v>
+        <v>847.0115678116543</v>
       </c>
       <c r="R13">
-        <v>696.6526394113508</v>
+        <v>7623.104110304888</v>
       </c>
       <c r="S13">
-        <v>0.006627128350202745</v>
+        <v>0.005479730787131773</v>
       </c>
       <c r="T13">
-        <v>0.006627128350202745</v>
+        <v>0.005701319154560983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N14">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O14">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P14">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q14">
-        <v>8376.723330093437</v>
+        <v>11249.89124904034</v>
       </c>
       <c r="R14">
-        <v>8376.723330093437</v>
+        <v>101249.0212413631</v>
       </c>
       <c r="S14">
-        <v>0.0796862274283123</v>
+        <v>0.07278103130104907</v>
       </c>
       <c r="T14">
-        <v>0.0796862274283123</v>
+        <v>0.07572413754701397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N15">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O15">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P15">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q15">
-        <v>10989.84153853472</v>
+        <v>12762.764574832</v>
       </c>
       <c r="R15">
-        <v>10989.84153853472</v>
+        <v>114864.881173488</v>
       </c>
       <c r="S15">
-        <v>0.1045443400398212</v>
+        <v>0.08256854643710498</v>
       </c>
       <c r="T15">
-        <v>0.1045443400398212</v>
+        <v>0.08590743845876535</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.24442930255297</v>
+        <v>8.290399499999999</v>
       </c>
       <c r="N16">
-        <v>8.24442930255297</v>
+        <v>16.580799</v>
       </c>
       <c r="O16">
-        <v>0.05921376811911847</v>
+        <v>0.05584863441910305</v>
       </c>
       <c r="P16">
-        <v>0.05921376811911847</v>
+        <v>0.03793869776670523</v>
       </c>
       <c r="Q16">
-        <v>1273.745443902456</v>
+        <v>1484.97115483258</v>
       </c>
       <c r="R16">
-        <v>1273.745443902456</v>
+        <v>8909.826928995482</v>
       </c>
       <c r="S16">
-        <v>0.01211690599401181</v>
+        <v>0.009607002388600379</v>
       </c>
       <c r="T16">
-        <v>0.01211690599401181</v>
+        <v>0.006663659081533065</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N17">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O17">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P17">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q17">
-        <v>446.675497044239</v>
+        <v>855.2613394985073</v>
       </c>
       <c r="R17">
-        <v>446.675497044239</v>
+        <v>7697.352055486565</v>
       </c>
       <c r="S17">
-        <v>0.004249141799425368</v>
+        <v>0.005533102582296333</v>
       </c>
       <c r="T17">
-        <v>0.004249141799425368</v>
+        <v>0.005756849188773535</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N18">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O18">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P18">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q18">
-        <v>1788.330229246242</v>
+        <v>2961.963360970626</v>
       </c>
       <c r="R18">
-        <v>1788.330229246242</v>
+        <v>26657.67024873563</v>
       </c>
       <c r="S18">
-        <v>0.01701205635534013</v>
+        <v>0.01916238506801148</v>
       </c>
       <c r="T18">
-        <v>0.01701205635534013</v>
+        <v>0.01993727014689929</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N19">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O19">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P19">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q19">
-        <v>21503.3241902252</v>
+        <v>39340.39033333621</v>
       </c>
       <c r="R19">
-        <v>21503.3241902252</v>
+        <v>354063.5130000259</v>
       </c>
       <c r="S19">
-        <v>0.2045571656558343</v>
+        <v>0.2545121652167328</v>
       </c>
       <c r="T19">
-        <v>0.2045571656558343</v>
+        <v>0.2648040823513643</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N20">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O20">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P20">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q20">
-        <v>28211.28454288814</v>
+        <v>44630.84388919734</v>
       </c>
       <c r="R20">
-        <v>28211.28454288814</v>
+        <v>401677.5950027761</v>
       </c>
       <c r="S20">
-        <v>0.2683687579907622</v>
+        <v>0.2887386885956785</v>
       </c>
       <c r="T20">
-        <v>0.2683687579907622</v>
+        <v>0.3004146517232497</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.24442930255297</v>
+        <v>8.290399499999999</v>
       </c>
       <c r="N21">
-        <v>8.24442930255297</v>
+        <v>16.580799</v>
       </c>
       <c r="O21">
-        <v>0.05921376811911847</v>
+        <v>0.05584863441910305</v>
       </c>
       <c r="P21">
-        <v>0.05921376811911847</v>
+        <v>0.03793869776670523</v>
       </c>
       <c r="Q21">
-        <v>3269.746431478633</v>
+        <v>5192.880852945326</v>
       </c>
       <c r="R21">
-        <v>3269.746431478633</v>
+        <v>31157.28511767196</v>
       </c>
       <c r="S21">
-        <v>0.03110449605464201</v>
+        <v>0.03359527799284925</v>
       </c>
       <c r="T21">
-        <v>0.03110449605464201</v>
+        <v>0.02330253186564394</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N22">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O22">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P22">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q22">
-        <v>60.00230320341394</v>
+        <v>88.01149587520949</v>
       </c>
       <c r="R22">
-        <v>60.00230320341394</v>
+        <v>528.0689752512569</v>
       </c>
       <c r="S22">
-        <v>0.0005707908678459915</v>
+        <v>0.0005693892762467543</v>
       </c>
       <c r="T22">
-        <v>0.0005707908678459915</v>
+        <v>0.0003949427582209639</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N23">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O23">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P23">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q23">
-        <v>240.22793583512</v>
+        <v>304.803706291044</v>
       </c>
       <c r="R23">
-        <v>240.22793583512</v>
+        <v>1828.822237746264</v>
       </c>
       <c r="S23">
-        <v>0.002285244143234448</v>
+        <v>0.001971923781053139</v>
       </c>
       <c r="T23">
-        <v>0.002285244143234448</v>
+        <v>0.001367776053360609</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N24">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O24">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P24">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q24">
-        <v>2888.560009405242</v>
+        <v>4048.360941442501</v>
       </c>
       <c r="R24">
-        <v>2888.560009405242</v>
+        <v>24290.16564865501</v>
       </c>
       <c r="S24">
-        <v>0.02747833977312781</v>
+        <v>0.0261908206821293</v>
       </c>
       <c r="T24">
-        <v>0.02747833977312781</v>
+        <v>0.01816661358368844</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N25">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O25">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P25">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q25">
-        <v>3789.646085584384</v>
+        <v>4592.780184784754</v>
       </c>
       <c r="R25">
-        <v>3789.646085584384</v>
+        <v>27556.68110870853</v>
       </c>
       <c r="S25">
-        <v>0.03605020578438065</v>
+        <v>0.02971293419535691</v>
       </c>
       <c r="T25">
-        <v>0.03605020578438065</v>
+        <v>0.02060964032077545</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.24442930255297</v>
+        <v>8.290399499999999</v>
       </c>
       <c r="N26">
-        <v>8.24442930255297</v>
+        <v>16.580799</v>
       </c>
       <c r="O26">
-        <v>0.05921376811911847</v>
+        <v>0.05584863441910305</v>
       </c>
       <c r="P26">
-        <v>0.05921376811911847</v>
+        <v>0.03793869776670523</v>
       </c>
       <c r="Q26">
-        <v>439.2278467883603</v>
+        <v>534.3784299164497</v>
       </c>
       <c r="R26">
-        <v>439.2278467883603</v>
+        <v>2137.513719665799</v>
       </c>
       <c r="S26">
-        <v>0.004178293673170031</v>
+        <v>0.003457154595843074</v>
       </c>
       <c r="T26">
-        <v>0.004178293673170031</v>
+        <v>0.001598646396104395</v>
       </c>
     </row>
   </sheetData>
